--- a/sheet1_preprocessed.xlsx
+++ b/sheet1_preprocessed.xlsx
@@ -606,89 +606,89 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UAB 18013</t>
+          <t>UAB 18020</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40.5718</v>
+        <v>53.4006</v>
       </c>
       <c r="D2" t="n">
-        <v>19.7841</v>
+        <v>15.7427</v>
       </c>
       <c r="E2" t="n">
-        <v>20.0122</v>
+        <v>1.4199</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0152</v>
+        <v>0.0117</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0304</v>
+        <v>27.5289</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0152</v>
+        <v>0.1681</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1369</v>
+        <v>0.0496</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.0049</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.07969999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.0107</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.1468</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.1555</v>
       </c>
       <c r="V2" t="n">
-        <v>13.4124</v>
+        <v>0.0029</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0304</v>
+        <v>0.0058</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5779</v>
+        <v>0.001</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>0.0097</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -712,41 +712,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UAB 18017</t>
+          <t>CON 02</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>47.0018</v>
+        <v>70.9169</v>
       </c>
       <c r="D3" t="n">
-        <v>15.2116</v>
+        <v>8.369300000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>1.7196</v>
+        <v>15.3492</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.0167</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0882</v>
+        <v>0.6654</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.0167</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0882</v>
+        <v>0.0377</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1323</v>
+        <v>0.0042</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.0042</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.0042</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0441</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -773,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0441</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2646</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -818,80 +818,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UAB 18003</t>
+          <t>UAB 18019</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58.9864</v>
+        <v>72.4873</v>
       </c>
       <c r="D4" t="n">
-        <v>33.1005</v>
+        <v>17.8601</v>
       </c>
       <c r="E4" t="n">
-        <v>3.1028</v>
+        <v>7.1422</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0138</v>
+        <v>0.0019</v>
       </c>
       <c r="G4" t="n">
-        <v>3.2693</v>
+        <v>0.5271</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0883</v>
+        <v>0.015</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0422</v>
+        <v>0.1477</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0238</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0038</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0008</v>
+        <v>0.0019</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0038</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0345</v>
+        <v>0.1608</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0061</v>
+        <v>0.0019</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0054</v>
+        <v>0.0019</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0077</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0115</v>
+        <v>0.0037</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0061</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
@@ -924,53 +924,53 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CON 02</t>
+          <t>CON 14</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70.9169</v>
+        <v>17.3937</v>
       </c>
       <c r="D5" t="n">
-        <v>8.369300000000001</v>
+        <v>61.7182</v>
       </c>
       <c r="E5" t="n">
-        <v>15.3492</v>
+        <v>5.19</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0167</v>
+        <v>11.5383</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6654</v>
+        <v>3.0066</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0167</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0377</v>
+        <v>0.0049</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0042</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0042</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0042</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.0197</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.008399999999999999</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.008399999999999999</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0197</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.008399999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -1030,101 +1030,101 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UAB 18009</t>
+          <t>UAB 17006</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>75.77589999999999</v>
+        <v>74.4002</v>
       </c>
       <c r="D6" t="n">
-        <v>7.2467</v>
+        <v>10.1792</v>
       </c>
       <c r="E6" t="n">
-        <v>7.3828</v>
+        <v>13.0713</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0147</v>
+        <v>0.0112</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0268</v>
+        <v>0.228</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0166</v>
+        <v>0.0273</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.0273</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0038</v>
+        <v>0.0048</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0013</v>
+        <v>0.0016</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0058</v>
+        <v>0.0016</v>
       </c>
       <c r="N6" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1076</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
         <v>0.0032</v>
       </c>
-      <c r="O6" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.0083</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
       <c r="AG6" t="n">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
@@ -1136,95 +1136,95 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UAB 17021</t>
+          <t>CON 06</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58.4457</v>
+        <v>66.2017</v>
       </c>
       <c r="D7" t="n">
-        <v>26.5791</v>
+        <v>1.5234</v>
       </c>
       <c r="E7" t="n">
-        <v>8.215</v>
+        <v>2.1617</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>4.3648</v>
+        <v>9.612500000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1028</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.0028</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0177</v>
+        <v>0.0009</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0177</v>
+        <v>0.0052</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>18.9276</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0177</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.0278</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.0245</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1242,35 +1242,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UAB 18002</t>
+          <t>CON 13</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30.2833</v>
+        <v>64.17400000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>41.8915</v>
+        <v>21.5658</v>
       </c>
       <c r="E8" t="n">
-        <v>17.244</v>
+        <v>10.6431</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0253</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.362</v>
+        <v>1.9632</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0463</v>
+        <v>0.119</v>
       </c>
       <c r="J8" t="n">
-        <v>0.021</v>
+        <v>0.0059</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0042</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.846</v>
+        <v>0.2796</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0042</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0042</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0042</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7215</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0042</v>
+        <v>0.0059</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.1011</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1347</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0042</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0042</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1348,104 +1348,104 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UAB 17009</t>
+          <t>CON 10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>64.7139</v>
+        <v>55.6195</v>
       </c>
       <c r="D9" t="n">
-        <v>1.6725</v>
+        <v>13.6374</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9357</v>
+        <v>1.2586</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0051</v>
+        <v>0.0175</v>
       </c>
       <c r="G9" t="n">
-        <v>11.4486</v>
+        <v>27.1516</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0288</v>
+        <v>0.1214</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08260000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0023</v>
+        <v>0.0524</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0847</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.0262</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.1144</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0148</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.0148</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="AA9" t="n">
         <v>0.0017</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="O9" t="n">
-        <v>17.9334</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.0028</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.0198</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.0158</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.0277</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.0051</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
       <c r="AB9" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1454,29 +1454,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UAB 17005</t>
+          <t>UAB 18011</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>76.8142</v>
+        <v>8.419600000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>4.7258</v>
+        <v>33.4196</v>
       </c>
       <c r="E10" t="n">
-        <v>11.9876</v>
+        <v>20.8247</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0407</v>
+        <v>36.6287</v>
       </c>
       <c r="G10" t="n">
-        <v>2.1745</v>
+        <v>0.207</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0204</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1375</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0051</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0051</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0102</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0102</v>
+        <v>0.0173</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0102</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0407</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0051</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
         <v>0</v>
@@ -1560,83 +1560,83 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>UAB 18014</t>
+          <t>UAB 17015</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>64.32769999999999</v>
+        <v>72.6095</v>
       </c>
       <c r="D11" t="n">
-        <v>15.6677</v>
+        <v>9.3949</v>
       </c>
       <c r="E11" t="n">
-        <v>4.6971</v>
+        <v>14.7459</v>
       </c>
       <c r="F11" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.0081</v>
       </c>
       <c r="G11" t="n">
-        <v>11.8844</v>
+        <v>0.2321</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1137</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0352</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0169</v>
+        <v>0.0122</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0007</v>
+        <v>0.0041</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0047</v>
+        <v>0.0081</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0007</v>
+        <v>0.0204</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0027</v>
+        <v>0.0041</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3574</v>
+        <v>0.0041</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0068</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0352</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0014</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0068</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1767</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0102</v>
+        <v>0.0041</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0068</v>
+        <v>0.0041</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0027</v>
+        <v>0.1385</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0142</v>
+        <v>0.0041</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0014</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -1666,80 +1666,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CON 04</t>
+          <t>UAB 18002</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>60.8265</v>
+        <v>30.2833</v>
       </c>
       <c r="D12" t="n">
-        <v>9.757899999999999</v>
+        <v>41.8915</v>
       </c>
       <c r="E12" t="n">
-        <v>4.7338</v>
+        <v>17.244</v>
       </c>
       <c r="F12" t="n">
-        <v>17.0491</v>
+        <v>0.0253</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4081</v>
+        <v>0.362</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0076</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0015</v>
+        <v>0.0463</v>
       </c>
       <c r="J12" t="n">
-        <v>0.003</v>
+        <v>0.021</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0015</v>
+        <v>0.0042</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0015</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0106</v>
+        <v>0.846</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.0042</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.0042</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0015</v>
+        <v>0.0042</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.7215</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0106</v>
+        <v>0.0042</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0091</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>0.1347</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>0.0042</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.0042</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1772,59 +1772,59 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>UAB 17013</t>
+          <t>UAB 17017</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15.4247</v>
+        <v>85.1267</v>
       </c>
       <c r="D13" t="n">
-        <v>29.367</v>
+        <v>1.6146</v>
       </c>
       <c r="E13" t="n">
-        <v>14.6234</v>
+        <v>3.3311</v>
       </c>
       <c r="F13" t="n">
-        <v>25.601</v>
+        <v>0.0129</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4808</v>
+        <v>8.0983</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.0129</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.1365</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.0043</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.0027</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="O13" t="n">
-        <v>2.4038</v>
+        <v>0.7239</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.0092</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1833,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0401</v>
+        <v>0.0011</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>0.0054</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1854,13 +1854,13 @@
         <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="AF13" t="n">
         <v>0</v>
@@ -1878,83 +1878,83 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CON 03</t>
+          <t>UAB 18014</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>76.9341</v>
+        <v>64.32769999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>10.6578</v>
+        <v>15.6677</v>
       </c>
       <c r="E14" t="n">
-        <v>9.608599999999999</v>
+        <v>4.6971</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0044</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2395</v>
+        <v>11.8844</v>
       </c>
       <c r="H14" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.1137</v>
       </c>
       <c r="I14" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.0352</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0044</v>
+        <v>0.0169</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0044</v>
+        <v>0.0047</v>
       </c>
       <c r="M14" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.0007</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0044</v>
+        <v>0.0027</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0044</v>
+        <v>0.3574</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.0068</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.0352</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0044</v>
+        <v>0.0014</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>0.0068</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.1767</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1872</v>
+        <v>0.0068</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.0027</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>0.0142</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1984,92 +1984,92 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UAB 18010</t>
+          <t>CON 04</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>84.6032</v>
+        <v>60.8265</v>
       </c>
       <c r="D15" t="n">
-        <v>3.2877</v>
+        <v>9.757899999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>3.1509</v>
+        <v>4.7338</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0193</v>
+        <v>17.0491</v>
       </c>
       <c r="G15" t="n">
-        <v>5.6097</v>
+        <v>0.4081</v>
       </c>
       <c r="H15" t="n">
-        <v>0.078</v>
+        <v>0.0076</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0345</v>
+        <v>0.0015</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0263</v>
+        <v>0.003</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001</v>
+        <v>0.0015</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0035</v>
+        <v>0.0015</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0035</v>
+        <v>0.003</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0041</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0066</v>
+        <v>0.0106</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0866</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0005</v>
+        <v>0.0015</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0588</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0.0106</v>
+      </c>
+      <c r="W15" t="n">
         <v>0.0091</v>
       </c>
-      <c r="W15" t="n">
-        <v>0.306</v>
-      </c>
       <c r="X15" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0086</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0198</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2090,77 +2090,77 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>UAB 17001</t>
+          <t>CON 05</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>52.7866</v>
+        <v>76.773</v>
       </c>
       <c r="D16" t="n">
-        <v>22.8393</v>
+        <v>8.8925</v>
       </c>
       <c r="E16" t="n">
-        <v>17.7473</v>
+        <v>7.533</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0325</v>
+        <v>0.0105</v>
       </c>
       <c r="G16" t="n">
-        <v>3.2061</v>
+        <v>2.6526</v>
       </c>
       <c r="H16" t="n">
-        <v>0.026</v>
+        <v>0.0477</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0195</v>
+        <v>0.0931</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0065</v>
+        <v>0.0672</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0065</v>
+        <v>0.0113</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.013</v>
+        <v>2.0101</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0065</v>
+        <v>0.004</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0065</v>
+        <v>0.0073</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1171</v>
+        <v>0.0081</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>0.0073</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2184,10 +2184,10 @@
         <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="AH16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2196,86 +2196,86 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>UAB 17012</t>
+          <t>CON 12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>45.047</v>
+        <v>55.7808</v>
       </c>
       <c r="D17" t="n">
-        <v>35.9673</v>
+        <v>15.407</v>
       </c>
       <c r="E17" t="n">
-        <v>1.6567</v>
+        <v>1.1843</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0283</v>
+        <v>0.02</v>
       </c>
       <c r="G17" t="n">
-        <v>2.4023</v>
+        <v>25.0795</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0343</v>
+        <v>0.2398</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0061</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>0.004</v>
+        <v>0.0182</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.0036</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002</v>
+        <v>0.0018</v>
       </c>
       <c r="N17" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.3933</v>
+        <v>0.0963</v>
       </c>
       <c r="P17" t="n">
-        <v>0.004</v>
+        <v>0.0127</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0182</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.0036</v>
       </c>
       <c r="S17" t="n">
-        <v>0.002</v>
+        <v>0.0018</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.1344</v>
       </c>
       <c r="V17" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>0.0091</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>0.0018</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>0.0073</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>0.0018</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>0.0036</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2302,86 +2302,86 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UAB 17018</t>
+          <t>UAB 17008</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>57.5149</v>
+        <v>73.9986</v>
       </c>
       <c r="D18" t="n">
-        <v>23.8056</v>
+        <v>9.857100000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>15.8094</v>
+        <v>9.116899999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0059</v>
+        <v>0.0171</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2776</v>
+        <v>2.7578</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0295</v>
+        <v>0.0613</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0059</v>
+        <v>0.0951</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.1077</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.0069</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.0057</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0118</v>
+        <v>1.6706</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0059</v>
+        <v>0.0008</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0886</v>
+        <v>0.0073</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>0.0028</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0059</v>
+        <v>0.0069</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0059</v>
+        <v>0.002</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>0.0179</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0059</v>
+        <v>0.0012</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="AH18" t="n">
         <v>1</v>
@@ -2408,29 +2408,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CON 08</t>
+          <t>UAB 17005</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>66.538</v>
+        <v>76.8142</v>
       </c>
       <c r="D19" t="n">
-        <v>31.3746</v>
+        <v>4.7258</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2416</v>
+        <v>11.9876</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0034</v>
+        <v>0.0407</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3389</v>
+        <v>2.1745</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0134</v>
+        <v>0.0204</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0067</v>
+        <v>0.1375</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2439,28 +2439,28 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.0051</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.0051</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="O19" t="n">
-        <v>0.9665</v>
+        <v>0.0102</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0034</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0067</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>0.0407</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>0.0051</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2514,59 +2514,59 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>UAB 17017</t>
+          <t>UAB 17013</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>85.1267</v>
+        <v>15.4247</v>
       </c>
       <c r="D20" t="n">
-        <v>1.6146</v>
+        <v>29.367</v>
       </c>
       <c r="E20" t="n">
-        <v>3.3311</v>
+        <v>14.6234</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0129</v>
+        <v>25.601</v>
       </c>
       <c r="G20" t="n">
-        <v>8.0983</v>
+        <v>0.4808</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0129</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1365</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0043</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0027</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0032</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7239</v>
+        <v>2.4038</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0092</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2575,19 +2575,19 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0011</v>
+        <v>0.0401</v>
       </c>
       <c r="W20" t="n">
-        <v>0.0119</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.0054</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
@@ -2596,13 +2596,13 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
@@ -2620,74 +2620,74 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>UAB 17006</t>
+          <t>UAB 17010</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>74.4002</v>
+        <v>59.5769</v>
       </c>
       <c r="D21" t="n">
-        <v>10.1792</v>
+        <v>28.7744</v>
       </c>
       <c r="E21" t="n">
-        <v>13.0713</v>
+        <v>5.7057</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0112</v>
+        <v>0.0856</v>
       </c>
       <c r="G21" t="n">
-        <v>0.228</v>
+        <v>3.9442</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0273</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0273</v>
+        <v>0.4506</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0048</v>
+        <v>0.0365</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0016</v>
+        <v>0.0014</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>0.1488</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0016</v>
+        <v>0.007</v>
       </c>
       <c r="R21" t="n">
-        <v>0.0016</v>
+        <v>0.0983</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.0772</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0048</v>
+        <v>0.0028</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0016</v>
+        <v>0.0056</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0016</v>
+        <v>0.0126</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.1076</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -2711,10 +2711,10 @@
         <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.0032</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>0.0028</v>
       </c>
       <c r="AH21" t="n">
         <v>1</v>
@@ -2726,78 +2726,78 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>UAB 18021</t>
+          <t>UAB 17003</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>53.0655</v>
+        <v>60.5104</v>
       </c>
       <c r="D22" t="n">
-        <v>24.7949</v>
+        <v>8.764699999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>18.8287</v>
+        <v>5.1275</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="G22" t="n">
-        <v>2.1242</v>
+        <v>23.6522</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0146</v>
+        <v>0.0424</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0073</v>
+        <v>0.0201</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.0149</v>
       </c>
       <c r="M22" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.4466</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="Y22" t="n">
         <v>0.0037</v>
       </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.0037</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0.1575</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
@@ -2805,16 +2805,16 @@
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>0.0022</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.0037</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="AF22" t="n">
         <v>0</v>
@@ -2832,95 +2832,95 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CON 10</t>
+          <t>UAB 17014</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>55.6195</v>
+        <v>88.6327</v>
       </c>
       <c r="D23" t="n">
-        <v>13.6374</v>
+        <v>6.0786</v>
       </c>
       <c r="E23" t="n">
-        <v>1.2586</v>
+        <v>2.0719</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0175</v>
+        <v>0.0106</v>
       </c>
       <c r="G23" t="n">
-        <v>27.1516</v>
+        <v>1.092</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1214</v>
+        <v>0.1055</v>
       </c>
       <c r="I23" t="n">
-        <v>0.11</v>
+        <v>0.2189</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0524</v>
+        <v>0.0145</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="M23" t="n">
-        <v>0.007</v>
+        <v>0.0026</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0061</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0847</v>
+        <v>0.0013</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0262</v>
+        <v>0.0092</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0044</v>
+        <v>0.0053</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1144</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="X23" t="n">
         <v>0.0026</v>
       </c>
-      <c r="W23" t="n">
-        <v>0.0148</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>0.0148</v>
+        <v>0.0026</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.0009</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0017</v>
+        <v>0.0013</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.0009</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2938,86 +2938,86 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CON 12</t>
+          <t>UAB 17002</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>55.7808</v>
+        <v>26.8138</v>
       </c>
       <c r="D24" t="n">
-        <v>15.407</v>
+        <v>55.7956</v>
       </c>
       <c r="E24" t="n">
-        <v>1.1843</v>
+        <v>1.854</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02</v>
+        <v>0.004</v>
       </c>
       <c r="G24" t="n">
-        <v>25.0795</v>
+        <v>0.0161</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2398</v>
+        <v>0.0121</v>
       </c>
       <c r="I24" t="n">
-        <v>0.09080000000000001</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0182</v>
+        <v>0.002</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0036</v>
+        <v>0.0141</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0018</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0963</v>
+        <v>0.006</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0127</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.08169999999999999</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0036</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0018</v>
+        <v>0.004</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1344</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0091</v>
+        <v>0.004</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0018</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0073</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.0018</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.0036</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -3044,47 +3044,47 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>UAB 18007</t>
+          <t>UAB 17020</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>82.5694</v>
+        <v>40.571</v>
       </c>
       <c r="D25" t="n">
-        <v>7.8604</v>
+        <v>48.4218</v>
       </c>
       <c r="E25" t="n">
-        <v>3.4893</v>
+        <v>4.6009</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0081</v>
+        <v>0.1232</v>
       </c>
       <c r="G25" t="n">
-        <v>2.2716</v>
+        <v>1.0408</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0538</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2177</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0081</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0054</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0027</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -3096,28 +3096,28 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0188</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0.5538</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0027</v>
+        <v>0.0042</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0081</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.0027</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>0.3866</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.0027</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
@@ -3150,59 +3150,59 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>UAB 17003</t>
+          <t>UAB 17018</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>60.5104</v>
+        <v>57.5149</v>
       </c>
       <c r="D26" t="n">
-        <v>8.764699999999999</v>
+        <v>23.8056</v>
       </c>
       <c r="E26" t="n">
-        <v>5.1275</v>
+        <v>15.8094</v>
       </c>
       <c r="F26" t="n">
-        <v>0.006</v>
+        <v>0.0059</v>
       </c>
       <c r="G26" t="n">
-        <v>23.6522</v>
+        <v>0.2776</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0424</v>
+        <v>0.0295</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0089</v>
+        <v>0.0059</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0201</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0149</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0097</v>
+        <v>0.0118</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0022</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.4466</v>
+        <v>0.0059</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>0.0886</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -3211,16 +3211,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0.0022</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0052</v>
+        <v>0.0059</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0007</v>
+        <v>0.0059</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0037</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.0022</v>
+        <v>0.0059</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.0007</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
@@ -3256,32 +3256,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>UAB 18012</t>
+          <t>UAB 17019</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>52.1357</v>
+        <v>73.1349</v>
       </c>
       <c r="D27" t="n">
-        <v>6.2441</v>
+        <v>16.6272</v>
       </c>
       <c r="E27" t="n">
-        <v>33.2099</v>
+        <v>6.6712</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0221</v>
+        <v>0.1278</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0166</v>
+        <v>0.466</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0111</v>
+        <v>0.0075</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.1466</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0055</v>
+        <v>0.0038</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>0.2481</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.0055</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>0.0038</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.0055</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -3362,89 +3362,89 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>UAB 17010</t>
+          <t>CON 07</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>59.5769</v>
+        <v>42.5661</v>
       </c>
       <c r="D28" t="n">
-        <v>28.7744</v>
+        <v>37.2826</v>
       </c>
       <c r="E28" t="n">
-        <v>5.7057</v>
+        <v>1.2764</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0856</v>
+        <v>0.0128</v>
       </c>
       <c r="G28" t="n">
-        <v>3.9442</v>
+        <v>2.308</v>
       </c>
       <c r="H28" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0202</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4506</v>
+        <v>0.0138</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0365</v>
+        <v>0.0075</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0014</v>
+        <v>0.0032</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="O28" t="n">
-        <v>0.1488</v>
+        <v>15.4992</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.007</v>
+        <v>0.0255</v>
       </c>
       <c r="R28" t="n">
-        <v>0.0983</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.0014</v>
+        <v>0.0011</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0772</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.0028</v>
+        <v>0.0128</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0056</v>
+        <v>0.0053</v>
       </c>
       <c r="X28" t="n">
-        <v>0.0126</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0014</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.0014</v>
+        <v>0.0011</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -3456,10 +3456,10 @@
         <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.0028</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3468,56 +3468,56 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>UAB 18018</t>
+          <t>UAB 18006</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17.8719</v>
+        <v>61.3691</v>
       </c>
       <c r="D29" t="n">
-        <v>59.3332</v>
+        <v>17.8684</v>
       </c>
       <c r="E29" t="n">
-        <v>5.8134</v>
+        <v>11.1582</v>
       </c>
       <c r="F29" t="n">
-        <v>12.7001</v>
+        <v>0.0071</v>
       </c>
       <c r="G29" t="n">
-        <v>2.9022</v>
+        <v>7.7524</v>
       </c>
       <c r="H29" t="n">
-        <v>0.003</v>
+        <v>0.0712</v>
       </c>
       <c r="I29" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0356</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.0049</v>
       </c>
       <c r="M29" t="n">
-        <v>0.003</v>
+        <v>0.0077</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>0.0274</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -3526,19 +3526,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="W29" t="n">
-        <v>0.027</v>
+        <v>0.0153</v>
       </c>
       <c r="X29" t="n">
-        <v>0.003</v>
+        <v>0.0033</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>0.0027</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="AF29" t="n">
         <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="AH29" t="n">
         <v>1</v>
@@ -3574,35 +3574,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CON 09</t>
+          <t>UAB 17004</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>72.74890000000001</v>
+        <v>29.1573</v>
       </c>
       <c r="D30" t="n">
-        <v>12.5022</v>
+        <v>7.5317</v>
       </c>
       <c r="E30" t="n">
-        <v>12.1837</v>
+        <v>9.023099999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0058</v>
+        <v>0.0746</v>
       </c>
       <c r="G30" t="n">
-        <v>0.08110000000000001</v>
+        <v>1.044</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0521</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0579</v>
+        <v>0.0746</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.0746</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3611,10 +3611,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -3680,47 +3680,47 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CON 13</t>
+          <t>CON 03</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>64.17400000000001</v>
+        <v>76.9341</v>
       </c>
       <c r="D31" t="n">
-        <v>21.5658</v>
+        <v>10.6578</v>
       </c>
       <c r="E31" t="n">
-        <v>10.6431</v>
+        <v>9.608599999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.0044</v>
       </c>
       <c r="G31" t="n">
-        <v>1.9632</v>
+        <v>0.2395</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0119</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>0.119</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0059</v>
+        <v>0.0044</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.0044</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.0044</v>
       </c>
       <c r="O31" t="n">
-        <v>0.2796</v>
+        <v>0.0044</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.0044</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3741,10 +3741,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0059</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0.1011</v>
+        <v>0.1872</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3786,50 +3786,50 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>UAB 17002</t>
+          <t>UAB 18021</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>26.8138</v>
+        <v>53.0655</v>
       </c>
       <c r="D32" t="n">
-        <v>55.7956</v>
+        <v>24.7949</v>
       </c>
       <c r="E32" t="n">
-        <v>1.854</v>
+        <v>18.8287</v>
       </c>
       <c r="F32" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0161</v>
+        <v>2.1242</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0121</v>
+        <v>0.0146</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.002</v>
+        <v>0.0073</v>
       </c>
       <c r="K32" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0141</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="N32" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3847,10 +3847,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0.004</v>
+        <v>0.1575</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3871,16 +3871,16 @@
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AF32" t="n">
         <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AH32" t="n">
         <v>1</v>
@@ -3892,47 +3892,47 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CON 11</t>
+          <t>CON 01</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>65.4914</v>
+        <v>60.5609</v>
       </c>
       <c r="D33" t="n">
-        <v>29.8224</v>
+        <v>8.744300000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1785</v>
+        <v>5.3618</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0089</v>
+        <v>0.0047</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4463</v>
+        <v>23.9903</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0268</v>
+        <v>0.0334</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0357</v>
+        <v>0.0101</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.0342</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.0023</v>
       </c>
       <c r="O33" t="n">
-        <v>0.9372</v>
+        <v>0.0031</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3941,28 +3941,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.4597</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0089</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0179</v>
+        <v>0.0031</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>0.0062</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>0.0031</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
@@ -3998,53 +3998,53 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>UAB 18008</t>
+          <t>UAB 17021</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>46.5296</v>
+        <v>58.4457</v>
       </c>
       <c r="D34" t="n">
-        <v>32.9952</v>
+        <v>26.5791</v>
       </c>
       <c r="E34" t="n">
-        <v>2.114</v>
+        <v>8.215</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0416</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>3.2656</v>
+        <v>4.3648</v>
       </c>
       <c r="H34" t="n">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0104</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0062</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.0177</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0021</v>
+        <v>0.0177</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>13.8234</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.0146</v>
+        <v>0.0177</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -4053,16 +4053,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0.0042</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0104</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0062</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -4071,16 +4071,16 @@
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
       <c r="AB34" t="n">
         <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -4210,89 +4210,89 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>UAB 18005</t>
+          <t>UAB 17001</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>66.8419</v>
+        <v>52.7866</v>
       </c>
       <c r="D36" t="n">
-        <v>1.2588</v>
+        <v>22.8393</v>
       </c>
       <c r="E36" t="n">
-        <v>11.0269</v>
+        <v>17.7473</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0092</v>
+        <v>0.0325</v>
       </c>
       <c r="G36" t="n">
-        <v>19.5294</v>
+        <v>3.2061</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0617</v>
+        <v>0.026</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0395</v>
+        <v>0.0195</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0067</v>
+        <v>0.0065</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0042</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0044</v>
+        <v>0.0065</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0019</v>
+        <v>0.013</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.0065</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="R36" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0.0033</v>
+        <v>0.0065</v>
       </c>
       <c r="T36" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0003</v>
+        <v>0.013</v>
       </c>
       <c r="V36" t="n">
-        <v>0.0036</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0325</v>
+        <v>0.1171</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.0172</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
         <v>0</v>
@@ -4316,77 +4316,77 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>UAB 17007</t>
+          <t>UAB 18004</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>63.0646</v>
+        <v>64.3925</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7472</v>
+        <v>19.4595</v>
       </c>
       <c r="E37" t="n">
-        <v>5.3379</v>
+        <v>13.0912</v>
       </c>
       <c r="F37" t="n">
-        <v>21.2978</v>
+        <v>0.0222</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5354</v>
+        <v>0.1551</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0013</v>
+        <v>0.0332</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0013</v>
+        <v>0.0775</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0053</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.0105</v>
+        <v>0.0222</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0026</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.0111</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.0053</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.0158</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>0.0665</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
       <c r="AC37" t="n">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
       <c r="AH37" t="n">
         <v>1</v>
@@ -4422,74 +4422,74 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>UAB 17020</t>
+          <t>UAB 18009</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>40.571</v>
+        <v>75.77589999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>48.4218</v>
+        <v>7.2467</v>
       </c>
       <c r="E38" t="n">
-        <v>4.6009</v>
+        <v>7.3828</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1232</v>
+        <v>0.0147</v>
       </c>
       <c r="G38" t="n">
-        <v>1.0408</v>
+        <v>0.0268</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.0166</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.0038</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.0013</v>
       </c>
       <c r="M38" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.0058</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="O38" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.0026</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>0.0083</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>0.0038</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.0042</v>
+        <v>0.007</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="X38" t="n">
-        <v>0.08069999999999999</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -4504,19 +4504,19 @@
         <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.3866</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="AF38" t="n">
         <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="AH38" t="n">
         <v>1</v>
@@ -4528,80 +4528,80 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>UAB 17019</t>
+          <t>UAB 18015</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>73.1349</v>
+        <v>70.51300000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>16.6272</v>
+        <v>10.426</v>
       </c>
       <c r="E39" t="n">
-        <v>6.6712</v>
+        <v>4.2061</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1278</v>
+        <v>0.0964</v>
       </c>
       <c r="G39" t="n">
-        <v>0.466</v>
+        <v>8.763999999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0075</v>
+        <v>0.0258</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1466</v>
+        <v>0.3897</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0038</v>
+        <v>0.0115</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.0095</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>0.0041</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="O39" t="n">
-        <v>0.2481</v>
+        <v>4.4085</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.0367</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>0.0034</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>0.0251</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.0767</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>0.0034</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="X39" t="n">
-        <v>0.0038</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>0.0034</v>
       </c>
       <c r="AA39" t="n">
         <v>0</v>
@@ -4610,16 +4610,16 @@
         <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>0.0027</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="AG39" t="n">
         <v>0</v>
@@ -4634,59 +4634,59 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>UAB 17016</t>
+          <t>UAB 18013</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>72.9153</v>
+        <v>40.5718</v>
       </c>
       <c r="D40" t="n">
-        <v>6.8744</v>
+        <v>19.7841</v>
       </c>
       <c r="E40" t="n">
-        <v>6.9586</v>
+        <v>20.0122</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0202</v>
+        <v>0.0152</v>
       </c>
       <c r="G40" t="n">
-        <v>11.2223</v>
+        <v>0.0304</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0372</v>
+        <v>0.0152</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0308</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0105</v>
+        <v>0.1369</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0057</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0081</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0024</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0049</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.0429</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.0032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -4695,31 +4695,31 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.0008</v>
+        <v>13.4124</v>
       </c>
       <c r="W40" t="n">
-        <v>0.1951</v>
+        <v>0.0304</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>0.5779</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="AC40" t="n">
         <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
         <v>0</v>
@@ -4740,80 +4740,80 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>UAB 18015</t>
+          <t>UAB 17012</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>70.51300000000001</v>
+        <v>45.047</v>
       </c>
       <c r="D41" t="n">
-        <v>10.426</v>
+        <v>35.9673</v>
       </c>
       <c r="E41" t="n">
-        <v>4.2061</v>
+        <v>1.6567</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0964</v>
+        <v>0.0283</v>
       </c>
       <c r="G41" t="n">
-        <v>8.763999999999999</v>
+        <v>2.4023</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0258</v>
+        <v>0.0343</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3897</v>
+        <v>0.0061</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0115</v>
+        <v>0.004</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0007</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0095</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0041</v>
+        <v>0.002</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0007</v>
+        <v>0.002</v>
       </c>
       <c r="O41" t="n">
-        <v>4.4085</v>
+        <v>13.3933</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0007</v>
+        <v>0.004</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.0367</v>
+        <v>0.0182</v>
       </c>
       <c r="R41" t="n">
-        <v>0.0034</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.0251</v>
+        <v>0.002</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0767</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.0034</v>
+        <v>0.004</v>
       </c>
       <c r="W41" t="n">
-        <v>0.008800000000000001</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.008800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.0034</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
@@ -4822,16 +4822,16 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.0027</v>
+        <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.0007</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.0007</v>
+        <v>0</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.0007</v>
+        <v>0</v>
       </c>
       <c r="AG41" t="n">
         <v>0</v>
@@ -4846,89 +4846,89 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>UAB 18019</t>
+          <t>UAB 18001</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>72.4873</v>
+        <v>45.4011</v>
       </c>
       <c r="D42" t="n">
-        <v>17.8601</v>
+        <v>25.2051</v>
       </c>
       <c r="E42" t="n">
-        <v>7.1422</v>
+        <v>5.4689</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0019</v>
+        <v>0.0726</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5271</v>
+        <v>21.9467</v>
       </c>
       <c r="H42" t="n">
-        <v>0.015</v>
+        <v>0.0264</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1477</v>
+        <v>0.0196</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.0064</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0019</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0019</v>
+        <v>0.0057</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="O42" t="n">
-        <v>0.1608</v>
+        <v>0.0014</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0019</v>
+        <v>0.0028</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="R42" t="n">
-        <v>0.0019</v>
+        <v>0.0702</v>
       </c>
       <c r="S42" t="n">
-        <v>0.0019</v>
+        <v>0.0032</v>
       </c>
       <c r="T42" t="n">
-        <v>0.0019</v>
+        <v>0.0004</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0037</v>
+        <v>0.11</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -4952,50 +4952,50 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CON 05</t>
+          <t>CON 11</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>76.773</v>
+        <v>65.4914</v>
       </c>
       <c r="D43" t="n">
-        <v>8.8925</v>
+        <v>29.8224</v>
       </c>
       <c r="E43" t="n">
-        <v>7.533</v>
+        <v>0.1785</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0105</v>
+        <v>0.0089</v>
       </c>
       <c r="G43" t="n">
-        <v>2.6526</v>
+        <v>0.4463</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0477</v>
+        <v>0.0268</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0931</v>
+        <v>0.0357</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0672</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0113</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>2.0101</v>
+        <v>0.9372</v>
       </c>
       <c r="P43" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -5004,25 +5004,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.0073</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.0089</v>
       </c>
       <c r="V43" t="n">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.0081</v>
+        <v>0.0179</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0073</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
       <c r="AH43" t="n">
         <v>0</v>
@@ -5058,59 +5058,59 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>UAB 17015</t>
+          <t>UAB 17007</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>72.6095</v>
+        <v>63.0646</v>
       </c>
       <c r="D44" t="n">
-        <v>9.3949</v>
+        <v>0.7472</v>
       </c>
       <c r="E44" t="n">
-        <v>14.7459</v>
+        <v>5.3379</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0081</v>
+        <v>21.2978</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2321</v>
+        <v>0.5354</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0122</v>
+        <v>0.0013</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0041</v>
+        <v>0.0013</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0081</v>
+        <v>0.0039</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0204</v>
+        <v>0.0053</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0041</v>
+        <v>0.0013</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0041</v>
+        <v>0.0105</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>0.0026</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -5119,16 +5119,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.0041</v>
+        <v>0.0053</v>
       </c>
       <c r="W44" t="n">
-        <v>0.0041</v>
+        <v>0.0158</v>
       </c>
       <c r="X44" t="n">
-        <v>0.1385</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.0041</v>
+        <v>0.0013</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="AC44" t="n">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="AH44" t="n">
         <v>1</v>
@@ -5164,98 +5164,98 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>UAB 18016</t>
+          <t>UAB 17016</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>63.8987</v>
+        <v>72.9153</v>
       </c>
       <c r="D45" t="n">
-        <v>20.6352</v>
+        <v>6.8744</v>
       </c>
       <c r="E45" t="n">
-        <v>11.398</v>
+        <v>6.9586</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0066</v>
+        <v>0.0202</v>
       </c>
       <c r="G45" t="n">
-        <v>2.2836</v>
+        <v>11.2223</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0172</v>
+        <v>0.0372</v>
       </c>
       <c r="I45" t="n">
-        <v>0.165</v>
+        <v>0.0308</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0066</v>
+        <v>0.0105</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.0057</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0026</v>
+        <v>0.0081</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0026</v>
+        <v>0.0016</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="O45" t="n">
-        <v>0.3208</v>
+        <v>0.0024</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0013</v>
+        <v>0.0049</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>0.0429</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0026</v>
+        <v>0.0032</v>
       </c>
       <c r="T45" t="n">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0238</v>
+        <v>0.0008</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0779</v>
+        <v>0.1951</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="Z45" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="AA45" t="n">
         <v>0</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="AC45" t="n">
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="AE45" t="n">
         <v>0</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.0092</v>
+        <v>0</v>
       </c>
       <c r="AG45" t="n">
         <v>0</v>
@@ -5270,35 +5270,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>UAB 17004</t>
+          <t>UAB 18012</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>29.1573</v>
+        <v>52.1357</v>
       </c>
       <c r="D46" t="n">
-        <v>7.5317</v>
+        <v>6.2441</v>
       </c>
       <c r="E46" t="n">
-        <v>9.023099999999999</v>
+        <v>33.2099</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0746</v>
+        <v>0.0221</v>
       </c>
       <c r="G46" t="n">
-        <v>1.044</v>
+        <v>0.0166</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.0111</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0746</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0746</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -5376,77 +5376,77 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CON 07</t>
+          <t>UAB 17009</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>42.5661</v>
+        <v>64.7139</v>
       </c>
       <c r="D47" t="n">
-        <v>37.2826</v>
+        <v>1.6725</v>
       </c>
       <c r="E47" t="n">
-        <v>1.2764</v>
+        <v>2.9357</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0128</v>
+        <v>0.0051</v>
       </c>
       <c r="G47" t="n">
-        <v>2.308</v>
+        <v>11.4486</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0202</v>
+        <v>0.0288</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0138</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0075</v>
+        <v>0.0023</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="O47" t="n">
+        <v>17.9334</v>
+      </c>
+      <c r="P47" t="n">
         <v>0.0011</v>
       </c>
-      <c r="M47" t="n">
-        <v>0.0032</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.0032</v>
-      </c>
-      <c r="O47" t="n">
-        <v>15.4992</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0.0021</v>
-      </c>
       <c r="Q47" t="n">
-        <v>0.0255</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="S47" t="n">
-        <v>0.0011</v>
+        <v>0.0028</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>0.0198</v>
       </c>
       <c r="V47" t="n">
-        <v>0.0128</v>
+        <v>0.0158</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0053</v>
+        <v>0.0277</v>
       </c>
       <c r="X47" t="n">
-        <v>0</v>
+        <v>0.0017</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.0032</v>
+        <v>0.0051</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
@@ -5455,25 +5455,25 @@
         <v>0</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.0011</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="AG47" t="n">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -5482,50 +5482,50 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>UAB 18004</t>
+          <t>UAB 18003</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>64.3925</v>
+        <v>58.9864</v>
       </c>
       <c r="D48" t="n">
-        <v>19.4595</v>
+        <v>33.1005</v>
       </c>
       <c r="E48" t="n">
-        <v>13.0912</v>
+        <v>3.1028</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0222</v>
+        <v>0.0138</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1551</v>
+        <v>3.2693</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0332</v>
+        <v>0.0883</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>0.0422</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0775</v>
+        <v>0.0238</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>0.0038</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>0.0038</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0222</v>
+        <v>0.0345</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>0.0061</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
@@ -5534,28 +5534,28 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>0.0054</v>
       </c>
       <c r="T48" t="n">
-        <v>0.0111</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>0.0061</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>0.0077</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>0.0115</v>
       </c>
       <c r="X48" t="n">
-        <v>0.0665</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>0</v>
+        <v>0.0061</v>
       </c>
       <c r="Z48" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="AA48" t="n">
         <v>0</v>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="AG48" t="n">
         <v>0</v>
@@ -5588,89 +5588,89 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>UAB 18001</t>
+          <t>UAB 18007</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>45.4011</v>
+        <v>82.5694</v>
       </c>
       <c r="D49" t="n">
-        <v>25.2051</v>
+        <v>7.8604</v>
       </c>
       <c r="E49" t="n">
-        <v>5.4689</v>
+        <v>3.4893</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0726</v>
+        <v>0.0081</v>
       </c>
       <c r="G49" t="n">
-        <v>21.9467</v>
+        <v>2.2716</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0264</v>
+        <v>0.0538</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0196</v>
+        <v>0.2177</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0064</v>
+        <v>0.0081</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0039</v>
+        <v>0.0054</v>
       </c>
       <c r="M49" t="n">
-        <v>0.0057</v>
+        <v>0.0027</v>
       </c>
       <c r="N49" t="n">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0.0014</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0028</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.0007</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0.0702</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0.0032</v>
+        <v>0.0188</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0004</v>
+        <v>0.5538</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0021</v>
+        <v>0.0027</v>
       </c>
       <c r="W49" t="n">
-        <v>0.11</v>
+        <v>0.0081</v>
       </c>
       <c r="X49" t="n">
-        <v>0.0032</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.0014</v>
+        <v>0.0027</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.0007</v>
+        <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.0007</v>
+        <v>0</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>0.0027</v>
       </c>
       <c r="AH49" t="n">
         <v>1</v>
@@ -5694,89 +5694,89 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>UAB 17008</t>
+          <t>UAB 18005</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>73.9986</v>
+        <v>66.8419</v>
       </c>
       <c r="D50" t="n">
-        <v>9.857100000000001</v>
+        <v>1.2588</v>
       </c>
       <c r="E50" t="n">
-        <v>9.116899999999999</v>
+        <v>11.0269</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0171</v>
+        <v>0.0092</v>
       </c>
       <c r="G50" t="n">
-        <v>2.7578</v>
+        <v>19.5294</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0613</v>
+        <v>0.0617</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0951</v>
+        <v>0.0395</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1077</v>
+        <v>0.0067</v>
       </c>
       <c r="K50" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="N50" t="n">
         <v>0.0008</v>
       </c>
-      <c r="L50" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.0016</v>
-      </c>
       <c r="O50" t="n">
-        <v>1.6706</v>
+        <v>0.0019</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0089</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.0325</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.0172</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="AB50" t="n">
         <v>0.0008</v>
       </c>
-      <c r="S50" t="n">
-        <v>0.0073</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="U50" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" t="n">
-        <v>0.0028</v>
-      </c>
-      <c r="W50" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="X50" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>0.0179</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0.0012</v>
-      </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AD50" t="n">
         <v>0</v>
@@ -5785,10 +5785,10 @@
         <v>0</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="AH50" t="n">
         <v>1</v>
@@ -5800,29 +5800,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>UAB 18011</t>
+          <t>CON 09</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8.419600000000001</v>
+        <v>72.74890000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>33.4196</v>
+        <v>12.5022</v>
       </c>
       <c r="E51" t="n">
-        <v>20.8247</v>
+        <v>12.1837</v>
       </c>
       <c r="F51" t="n">
-        <v>36.6287</v>
+        <v>0.0058</v>
       </c>
       <c r="G51" t="n">
-        <v>0.207</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.0521</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>0.0579</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -5837,10 +5837,10 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>0.0058</v>
       </c>
       <c r="O51" t="n">
-        <v>0.0173</v>
+        <v>0.0058</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>0.0058</v>
       </c>
       <c r="AE51" t="n">
         <v>0</v>
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="AH51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -5906,50 +5906,50 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>UAB 18006</t>
+          <t>UAB 18016</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>61.3691</v>
+        <v>63.8987</v>
       </c>
       <c r="D52" t="n">
-        <v>17.8684</v>
+        <v>20.6352</v>
       </c>
       <c r="E52" t="n">
-        <v>11.1582</v>
+        <v>11.398</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0071</v>
+        <v>0.0066</v>
       </c>
       <c r="G52" t="n">
-        <v>7.7524</v>
+        <v>2.2836</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0712</v>
+        <v>0.0172</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0356</v>
+        <v>0.165</v>
       </c>
       <c r="J52" t="n">
-        <v>0.0033</v>
+        <v>0.0066</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0.0049</v>
+        <v>0.0026</v>
       </c>
       <c r="M52" t="n">
-        <v>0.0077</v>
+        <v>0.0026</v>
       </c>
       <c r="N52" t="n">
-        <v>0.0274</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0.0033</v>
+        <v>0.3208</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0005</v>
+        <v>0.0013</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -5958,25 +5958,25 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>0.0026</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.0779</v>
+      </c>
+      <c r="X52" t="n">
         <v>0.0066</v>
       </c>
-      <c r="V52" t="n">
-        <v>0.0033</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0.0153</v>
-      </c>
-      <c r="X52" t="n">
-        <v>0.0033</v>
-      </c>
       <c r="Y52" t="n">
-        <v>0.0027</v>
+        <v>0</v>
       </c>
       <c r="Z52" t="n">
         <v>0</v>
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
       <c r="AC52" t="n">
         <v>0</v>
@@ -5994,13 +5994,13 @@
         <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>0.0092</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
       <c r="AH52" t="n">
         <v>1</v>
@@ -6012,89 +6012,89 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>UAB 18020</t>
+          <t>UAB 18008</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>53.4006</v>
+        <v>46.5296</v>
       </c>
       <c r="D53" t="n">
-        <v>15.7427</v>
+        <v>32.9952</v>
       </c>
       <c r="E53" t="n">
-        <v>1.4199</v>
+        <v>2.114</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0117</v>
+        <v>0.0416</v>
       </c>
       <c r="G53" t="n">
-        <v>27.5289</v>
+        <v>3.2656</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1681</v>
+        <v>0.052</v>
       </c>
       <c r="I53" t="n">
-        <v>0.08459999999999999</v>
+        <v>0.0104</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0496</v>
+        <v>0.0062</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0019</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0049</v>
+        <v>0.0021</v>
       </c>
       <c r="N53" t="n">
-        <v>0.0029</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>0.07969999999999999</v>
+        <v>13.8234</v>
       </c>
       <c r="P53" t="n">
-        <v>0.0107</v>
+        <v>0.0021</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.1468</v>
+        <v>0.0146</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>0.0042</v>
       </c>
       <c r="U53" t="n">
-        <v>0.1555</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>0.0029</v>
+        <v>0.0104</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0058</v>
+        <v>0.0062</v>
       </c>
       <c r="X53" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.0097</v>
+        <v>0</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.001</v>
+        <v>0.0021</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.0019</v>
+        <v>0</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.001</v>
+        <v>0.0021</v>
       </c>
       <c r="AD53" t="n">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.0029</v>
+        <v>0</v>
       </c>
       <c r="AH53" t="n">
         <v>1</v>
@@ -6118,47 +6118,47 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CON 01</t>
+          <t>UAB 18017</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>60.5609</v>
+        <v>47.0018</v>
       </c>
       <c r="D54" t="n">
-        <v>8.744300000000001</v>
+        <v>15.2116</v>
       </c>
       <c r="E54" t="n">
-        <v>5.3618</v>
+        <v>1.7196</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0047</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>23.9903</v>
+        <v>0.0882</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0334</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0101</v>
+        <v>0.0882</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0342</v>
+        <v>0.1323</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0.008500000000000001</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0.0023</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0.0031</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -6167,10 +6167,10 @@
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>0.4597</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>0.0016</v>
+        <v>0.0441</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -6179,16 +6179,16 @@
         <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>0.0441</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0031</v>
+        <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0.0008</v>
+        <v>0.2646</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.0062</v>
+        <v>0</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
@@ -6197,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.0031</v>
+        <v>0</v>
       </c>
       <c r="AC54" t="n">
         <v>0</v>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -6224,59 +6224,59 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>UAB 17014</t>
+          <t>UAB 18018</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>88.6327</v>
+        <v>17.8719</v>
       </c>
       <c r="D55" t="n">
-        <v>6.0786</v>
+        <v>59.3332</v>
       </c>
       <c r="E55" t="n">
-        <v>2.0719</v>
+        <v>5.8134</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0106</v>
+        <v>12.7001</v>
       </c>
       <c r="G55" t="n">
-        <v>1.092</v>
+        <v>2.9022</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1055</v>
+        <v>0.003</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2189</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0145</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.0026</v>
+        <v>0.003</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>0.0092</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="S55" t="n">
-        <v>0.0053</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
@@ -6288,22 +6288,22 @@
         <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>0.0053</v>
+        <v>0.027</v>
       </c>
       <c r="X55" t="n">
-        <v>0.0026</v>
+        <v>0.003</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.0026</v>
+        <v>0</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="AC55" t="n">
         <v>0</v>
@@ -6312,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
       <c r="AF55" t="n">
         <v>0</v>
@@ -6330,104 +6330,104 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CON 06</t>
+          <t>UAB 18010</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>66.2017</v>
+        <v>84.6032</v>
       </c>
       <c r="D56" t="n">
-        <v>1.5234</v>
+        <v>3.2877</v>
       </c>
       <c r="E56" t="n">
-        <v>2.1617</v>
+        <v>3.1509</v>
       </c>
       <c r="F56" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0193</v>
       </c>
       <c r="G56" t="n">
-        <v>9.612500000000001</v>
+        <v>5.6097</v>
       </c>
       <c r="H56" t="n">
-        <v>0.025</v>
+        <v>0.078</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1028</v>
+        <v>0.0345</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0028</v>
+        <v>0.0263</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0009</v>
+        <v>0.001</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0009</v>
+        <v>0.0035</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0052</v>
+        <v>0.0035</v>
       </c>
       <c r="N56" t="n">
-        <v>0.0019</v>
+        <v>0.0041</v>
       </c>
       <c r="O56" t="n">
-        <v>18.9276</v>
+        <v>0.0066</v>
       </c>
       <c r="P56" t="n">
-        <v>0.0014</v>
+        <v>0.0046</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0.0009</v>
+        <v>0.0866</v>
       </c>
       <c r="S56" t="n">
-        <v>0.0014</v>
+        <v>0.0066</v>
       </c>
       <c r="T56" t="n">
         <v>0.0005</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="V56" t="n">
-        <v>0.0278</v>
+        <v>0.0091</v>
       </c>
       <c r="W56" t="n">
-        <v>0.0245</v>
+        <v>0.306</v>
       </c>
       <c r="X56" t="n">
-        <v>0.0014</v>
+        <v>0.001</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.0066</v>
+        <v>0.0086</v>
       </c>
       <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0.0198</v>
+      </c>
+      <c r="AC56" t="n">
         <v>0.0005</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0</v>
       </c>
       <c r="AD56" t="n">
         <v>0.0005</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.0009</v>
+        <v>0</v>
       </c>
       <c r="AF56" t="n">
         <v>0</v>
       </c>
       <c r="AG56" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="AH56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -6436,29 +6436,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CON 14</t>
+          <t>CON 08</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17.3937</v>
+        <v>66.538</v>
       </c>
       <c r="D57" t="n">
-        <v>61.7182</v>
+        <v>31.3746</v>
       </c>
       <c r="E57" t="n">
-        <v>5.19</v>
+        <v>0.2416</v>
       </c>
       <c r="F57" t="n">
-        <v>11.5383</v>
+        <v>0.0034</v>
       </c>
       <c r="G57" t="n">
-        <v>3.0066</v>
+        <v>0.3389</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>0.0134</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0049</v>
+        <v>0.0067</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -6476,13 +6476,13 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0197</v>
+        <v>0.9665</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>0.0034</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -6500,10 +6500,10 @@
         <v>0</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0197</v>
+        <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>0.0067</v>
       </c>
       <c r="Y57" t="n">
         <v>0</v>
